--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/20/seed4/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>15.59010000000001</v>
+        <v>15.70730000000002</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>-8.23</v>
       </c>
       <c r="E4" t="n">
-        <v>16.43749999999999</v>
+        <v>16.28759999999999</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         <v>5.51</v>
       </c>
       <c r="C6" t="n">
-        <v>-12.438</v>
+        <v>-12.5006</v>
       </c>
       <c r="D6" t="n">
         <v>-8.08</v>
@@ -550,13 +550,13 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.776699999999997</v>
+        <v>5.638299999999999</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.490099999999996</v>
+        <v>-7.666899999999994</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.83180000000002</v>
+        <v>-21.95300000000002</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -607,7 +607,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.1594</v>
+        <v>-8.361499999999999</v>
       </c>
       <c r="E10" t="n">
         <v>15.84</v>
@@ -627,7 +627,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>15.80550000000001</v>
+        <v>15.5682</v>
       </c>
     </row>
     <row r="12">
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.265599999999996</v>
+        <v>5.466799999999999</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.2113</v>
+        <v>-22.3342</v>
       </c>
       <c r="B13" t="n">
         <v>4.02</v>
@@ -658,10 +658,10 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.372199999999998</v>
+        <v>-8.461999999999996</v>
       </c>
       <c r="E13" t="n">
-        <v>16.14620000000002</v>
+        <v>16.09380000000001</v>
       </c>
     </row>
     <row r="14">
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.892199999999999</v>
+        <v>5.563300000000001</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.4529</v>
+        <v>-14.38340000000001</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.56059999999998</v>
+        <v>-21.52729999999998</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -709,7 +709,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.927400000000008</v>
+        <v>-9.123800000000006</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.14530000000001</v>
+        <v>-22.32050000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -754,7 +754,7 @@
         <v>-18.24</v>
       </c>
       <c r="B19" t="n">
-        <v>8.746400000000005</v>
+        <v>8.832100000000004</v>
       </c>
       <c r="C19" t="n">
         <v>-12.15</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.33909999999997</v>
+        <v>-20.66699999999998</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-6.795399999999995</v>
+        <v>-6.883299999999997</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -845,10 +845,10 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.195600000000002</v>
+        <v>-7.6238</v>
       </c>
       <c r="E24" t="n">
-        <v>16.71180000000003</v>
+        <v>16.52750000000001</v>
       </c>
     </row>
     <row r="25">
@@ -865,15 +865,15 @@
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>17.1253</v>
+        <v>17.11830000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.08389999999998</v>
+        <v>-21.21349999999998</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890500000000003</v>
+        <v>4.100600000000004</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-22.2689</v>
+        <v>-22.07109999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>5.743300000000002</v>
+        <v>5.613600000000004</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.78169999999999</v>
+        <v>16.98449999999998</v>
       </c>
     </row>
     <row r="28">
@@ -910,7 +910,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.3478</v>
+        <v>-12.50049999999999</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.77759999999999</v>
+        <v>-21.8244</v>
       </c>
       <c r="B29" t="n">
-        <v>5.487099999999999</v>
+        <v>5.631699999999999</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.3578</v>
+        <v>17.347</v>
       </c>
     </row>
     <row r="30">
@@ -981,7 +981,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-9.161399999999993</v>
+        <v>-9.016899999999996</v>
       </c>
       <c r="E32" t="n">
         <v>15.18</v>
@@ -995,7 +995,7 @@
         <v>6.69</v>
       </c>
       <c r="C33" t="n">
-        <v>-11.51089999999999</v>
+        <v>-11.9584</v>
       </c>
       <c r="D33" t="n">
         <v>-6.63</v>
@@ -1023,24 +1023,24 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-19.9522</v>
+        <v>-19.98980000000001</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.30340000000001</v>
+        <v>-12.62430000000001</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.2728</v>
+        <v>16.44489999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-19.88409999999999</v>
+        <v>-20.126</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.862599999999997</v>
+        <v>8.283600000000012</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1077,10 +1077,10 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>4.4312</v>
+        <v>4.340000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.536</v>
+        <v>-12.1576</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.234500000000006</v>
+        <v>-7.230900000000005</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1120,7 +1120,7 @@
         <v>-7.23</v>
       </c>
       <c r="E40" t="n">
-        <v>17.16910000000001</v>
+        <v>17.08410000000002</v>
       </c>
     </row>
     <row r="41">
@@ -1165,7 +1165,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-13.33159999999999</v>
+        <v>-14.3467</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
@@ -1182,24 +1182,24 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.16959999999999</v>
+        <v>-13.6376</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.61129999999999</v>
+        <v>16.41189999999998</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-22.22380000000001</v>
+        <v>-22.15019999999999</v>
       </c>
       <c r="B45" t="n">
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.54559999999999</v>
+        <v>-13.3125</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1230,13 +1230,13 @@
         <v>-21.83</v>
       </c>
       <c r="B47" t="n">
-        <v>5.694000000000001</v>
+        <v>5.537999999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.2722</v>
+        <v>-12.2717</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.303399999999994</v>
+        <v>-7.250499999999995</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.015599999999996</v>
+        <v>-7.069999999999998</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1273,7 +1273,7 @@
         <v>-9.210000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>16.44059999999999</v>
+        <v>16.47249999999999</v>
       </c>
     </row>
     <row r="50">
@@ -1298,10 +1298,10 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>6.023200000000002</v>
+        <v>6.105900000000005</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.71119999999999</v>
+        <v>-11.9255</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1315,13 +1315,13 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>4.957200000000003</v>
+        <v>5.793000000000001</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.357799999999993</v>
+        <v>-7.263899999999995</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1352,7 +1352,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-13.515</v>
+        <v>-13.3739</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.4471</v>
+        <v>-22.399</v>
       </c>
       <c r="B55" t="n">
-        <v>4.704999999999996</v>
+        <v>4.574499999999996</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-7.731899999999997</v>
+        <v>-7.832699999999999</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1397,19 +1397,19 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.8471</v>
+        <v>-22.0122</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.45139999999999</v>
+        <v>-13.17779999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.49349999999999</v>
+        <v>16.48639999999999</v>
       </c>
     </row>
     <row r="58">
@@ -1488,7 +1488,7 @@
         <v>4.28</v>
       </c>
       <c r="C62" t="n">
-        <v>-13.8238</v>
+        <v>-13.98310000000001</v>
       </c>
       <c r="D62" t="n">
         <v>-8.5</v>
@@ -1505,7 +1505,7 @@
         <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>-11.6199</v>
+        <v>-11.8066</v>
       </c>
       <c r="D63" t="n">
         <v>-7.14</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-10.6868</v>
+        <v>-10.4245</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.68199999999999</v>
+        <v>-21.68090000000001</v>
       </c>
       <c r="B69" t="n">
-        <v>5.382599999999996</v>
+        <v>5.552499999999996</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1621,10 +1621,10 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>5.973600000000002</v>
+        <v>6.176000000000005</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.76479999999999</v>
+        <v>-12.29819999999999</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1720,10 +1720,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-22.1652</v>
+        <v>-22.4064</v>
       </c>
       <c r="B76" t="n">
-        <v>5.1402</v>
+        <v>5.6446</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.15549999999998</v>
+        <v>-19.89799999999999</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1800,7 +1800,7 @@
         <v>-6.63</v>
       </c>
       <c r="E80" t="n">
-        <v>17.0328</v>
+        <v>17.0776</v>
       </c>
     </row>
     <row r="81">
@@ -1808,10 +1808,10 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.925500000000003</v>
+        <v>5.756000000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>-12.18519999999999</v>
+        <v>-12.5519</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.92440000000001</v>
+        <v>-21.9825</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.58999999999999</v>
+        <v>-21.74959999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>6.352800000000003</v>
+        <v>6.246300000000009</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-9.008300000000002</v>
+        <v>-8.565099999999994</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1885,7 +1885,7 @@
         <v>-7.87</v>
       </c>
       <c r="E85" t="n">
-        <v>16.06330000000001</v>
+        <v>16.2594</v>
       </c>
     </row>
     <row r="86">
@@ -1930,7 +1930,7 @@
         <v>5.51</v>
       </c>
       <c r="C88" t="n">
-        <v>-11.87359999999999</v>
+        <v>-11.58719999999999</v>
       </c>
       <c r="D88" t="n">
         <v>-8.140000000000001</v>
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.40740000000003</v>
+        <v>17.40180000000002</v>
       </c>
     </row>
     <row r="90">
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-20.83079999999998</v>
+        <v>-20.64029999999998</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2029,7 +2029,7 @@
         <v>-20.95</v>
       </c>
       <c r="B94" t="n">
-        <v>5.921499999999996</v>
+        <v>5.709799999999997</v>
       </c>
       <c r="C94" t="n">
         <v>-10.65</v>
@@ -2066,7 +2066,7 @@
         <v>5.8</v>
       </c>
       <c r="C96" t="n">
-        <v>-12.6436</v>
+        <v>-12.41780000000001</v>
       </c>
       <c r="D96" t="n">
         <v>-8.529999999999999</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-21.81920000000001</v>
+        <v>-21.8776</v>
       </c>
       <c r="B97" t="n">
         <v>5.08</v>
@@ -2117,7 +2117,7 @@
         <v>8.42</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.3738</v>
+        <v>-12.4035</v>
       </c>
       <c r="D99" t="n">
         <v>-7.98</v>
@@ -2131,13 +2131,13 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>4.453200000000001</v>
+        <v>4.9581</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.645800000000007</v>
+        <v>-8.305600000000004</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2154,10 +2154,10 @@
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.127499999999998</v>
+        <v>-8.006899999999996</v>
       </c>
       <c r="E101" t="n">
-        <v>16.61780000000001</v>
+        <v>16.4201</v>
       </c>
     </row>
     <row r="102">
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.580700000000004</v>
+        <v>8.209500000000007</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
